--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Rtn4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H2">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,22 +558,208 @@
         <v>0.664231</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q2">
-        <v>0.0143902324995</v>
+        <v>9.055682633333335E-05</v>
       </c>
       <c r="R2">
-        <v>0.08634139499700001</v>
+        <v>0.000815011437</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.09701662809899735</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.1557682661853895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.000409</v>
+      </c>
+      <c r="H3">
+        <v>0.001227</v>
+      </c>
+      <c r="I3">
+        <v>0.164521319388576</v>
+      </c>
+      <c r="J3">
+        <v>0.228024530756365</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.1540585</v>
+      </c>
+      <c r="N3">
+        <v>0.308117</v>
+      </c>
+      <c r="O3">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P3">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q3">
+        <v>6.30099265E-05</v>
+      </c>
+      <c r="R3">
+        <v>0.000378059559</v>
+      </c>
+      <c r="S3">
+        <v>0.06750469128957869</v>
+      </c>
+      <c r="T3">
+        <v>0.07225626457097553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.002077</v>
+      </c>
+      <c r="H4">
+        <v>0.004154</v>
+      </c>
+      <c r="I4">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J4">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.2214103333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.664231</v>
+      </c>
+      <c r="O4">
+        <v>0.5896903116237344</v>
+      </c>
+      <c r="P4">
+        <v>0.6831206522767569</v>
+      </c>
+      <c r="Q4">
+        <v>0.0004598692623333333</v>
+      </c>
+      <c r="R4">
+        <v>0.002759215574</v>
+      </c>
+      <c r="S4">
+        <v>0.4926736835247371</v>
+      </c>
+      <c r="T4">
+        <v>0.5273523860913675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.002077</v>
+      </c>
+      <c r="H5">
+        <v>0.004154</v>
+      </c>
+      <c r="I5">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J5">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.1540585</v>
+      </c>
+      <c r="N5">
+        <v>0.308117</v>
+      </c>
+      <c r="O5">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P5">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q5">
+        <v>0.0003199795045</v>
+      </c>
+      <c r="R5">
+        <v>0.001279918018</v>
+      </c>
+      <c r="S5">
+        <v>0.3428049970866868</v>
+      </c>
+      <c r="T5">
+        <v>0.2446230831522676</v>
       </c>
     </row>
   </sheetData>
